--- a/biology/Zoologie/Carouge_galonné/Carouge_galonné.xlsx
+++ b/biology/Zoologie/Carouge_galonné/Carouge_galonné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carouge_galonn%C3%A9</t>
+          <t>Carouge_galonné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agelasticus thilius
 Le Carouge galonné (Agelasticus thilius) est une espèce d'oiseau de la famille des ictéridés qu’on retrouve en Amérique du Sud.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carouge_galonn%C3%A9</t>
+          <t>Carouge_galonné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carouge galonné se retrouve en Argentine, au Chili, dans le sud du Brésil, en Uruguay, dans le sud du Paraguay, dans le sud du Pérou et dans l’ouest de la Bolivie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carouge_galonn%C3%A9</t>
+          <t>Carouge_galonné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe trois sous-espèces :
 A. t. alticola (Todd, 1932) : une population isolée sur l’altiplano chevauchant le Pérou et la Bolivie.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carouge_galonn%C3%A9</t>
+          <t>Carouge_galonné</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carouge galonné niche dans les roselières de grandes tailles.  En Argentine, il affectionne les étendues de Typha, d’herbes de la pampa et de Cyperus.  Les populations en altitude et au Chili recherchent plutôt les marécages peuplés de Scirpus.  Il fréquente aussi les rivages vaseux et les terres agricoles aux environs des marais où il niche pour se nourrir.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carouge_galonn%C3%A9</t>
+          <t>Carouge_galonné</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce carouge niche en colonie.  Les œufs sont au nombre de deux à quatre.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carouge_galonn%C3%A9</t>
+          <t>Carouge_galonné</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carouge galonné est grégaire mais monogame.
 </t>
